--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Cthrc1-Fzd5.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,16 +85,16 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Cthrc1</t>
+  </si>
+  <si>
+    <t>Fzd5</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Neutrophils</t>
-  </si>
-  <si>
-    <t>Cthrc1</t>
-  </si>
-  <si>
-    <t>Fzd5</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.4135925</v>
+        <v>0.8141179999999999</v>
       </c>
       <c r="H2">
-        <v>4.827185</v>
+        <v>1.628236</v>
       </c>
       <c r="I2">
-        <v>0.1006166576043813</v>
+        <v>0.03711595173929667</v>
       </c>
       <c r="J2">
-        <v>0.07006619804477368</v>
+        <v>0.02558673725508277</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -561,28 +561,28 @@
         <v>0.5</v>
       </c>
       <c r="M2">
-        <v>2.170377</v>
+        <v>2.8377025</v>
       </c>
       <c r="N2">
-        <v>4.340754</v>
+        <v>5.675405</v>
       </c>
       <c r="O2">
-        <v>0.1015511790371703</v>
+        <v>0.08520139853031897</v>
       </c>
       <c r="P2">
-        <v>0.07285982038608428</v>
+        <v>0.05979321158534227</v>
       </c>
       <c r="Q2">
-        <v>5.238405649372501</v>
+        <v>2.310224683895</v>
       </c>
       <c r="R2">
-        <v>20.95362259749</v>
+        <v>9.240898735579998</v>
       </c>
       <c r="S2">
-        <v>0.01021774021050419</v>
+        <v>0.003162330995971901</v>
       </c>
       <c r="T2">
-        <v>0.00510501060467802</v>
+        <v>0.001529913194471723</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.4135925</v>
+        <v>0.8141179999999999</v>
       </c>
       <c r="H3">
-        <v>4.827185</v>
+        <v>1.628236</v>
       </c>
       <c r="I3">
-        <v>0.1006166576043813</v>
+        <v>0.03711595173929667</v>
       </c>
       <c r="J3">
-        <v>0.07006619804477368</v>
+        <v>0.02558673725508277</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>15.185923</v>
       </c>
       <c r="O3">
-        <v>0.2368480046581279</v>
+        <v>0.1519846751111432</v>
       </c>
       <c r="P3">
-        <v>0.2548966428820675</v>
+        <v>0.1599912441592654</v>
       </c>
       <c r="Q3">
-        <v>12.21754328612583</v>
+        <v>4.121044420304665</v>
       </c>
       <c r="R3">
-        <v>73.30525971675499</v>
+        <v>24.72626652182799</v>
       </c>
       <c r="S3">
-        <v>0.02383085458896778</v>
+        <v>0.005641055866537877</v>
       </c>
       <c r="T3">
-        <v>0.01785963866112289</v>
+        <v>0.004093653927416918</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,13 +652,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>25</v>
-      </c>
-      <c r="D4" t="s">
-        <v>26</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.4135925</v>
+        <v>0.8141179999999999</v>
       </c>
       <c r="H4">
-        <v>4.827185</v>
+        <v>1.628236</v>
       </c>
       <c r="I4">
-        <v>0.1006166576043813</v>
+        <v>0.03711595173929667</v>
       </c>
       <c r="J4">
-        <v>0.07006619804477368</v>
+        <v>0.02558673725508277</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.815520666666667</v>
+        <v>4.372280666666666</v>
       </c>
       <c r="N4">
-        <v>11.446562</v>
+        <v>13.116842</v>
       </c>
       <c r="O4">
-        <v>0.1785268745202745</v>
+        <v>0.1312767732230829</v>
       </c>
       <c r="P4">
-        <v>0.1921312406457905</v>
+        <v>0.1381924477702479</v>
       </c>
       <c r="Q4">
-        <v>9.209112064661667</v>
+        <v>3.559552391785332</v>
       </c>
       <c r="R4">
-        <v>55.25467238797</v>
+        <v>21.357314350712</v>
       </c>
       <c r="S4">
-        <v>0.01796277740678681</v>
+        <v>0.004872462379438538</v>
       </c>
       <c r="T4">
-        <v>0.01346190555767602</v>
+        <v>0.003535893851734082</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,10 +714,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>22</v>
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.4135925</v>
+        <v>0.8141179999999999</v>
       </c>
       <c r="H5">
-        <v>4.827185</v>
+        <v>1.628236</v>
       </c>
       <c r="I5">
-        <v>0.1006166576043813</v>
+        <v>0.03711595173929667</v>
       </c>
       <c r="J5">
-        <v>0.07006619804477368</v>
+        <v>0.02558673725508277</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.3695805</v>
+        <v>2.1625465</v>
       </c>
       <c r="N5">
-        <v>4.739161</v>
+        <v>4.325093</v>
       </c>
       <c r="O5">
-        <v>0.1108718409743963</v>
+        <v>0.06492998691259792</v>
       </c>
       <c r="P5">
-        <v>0.07954710615730251</v>
+        <v>0.04556700374251401</v>
       </c>
       <c r="Q5">
-        <v>5.71920172294625</v>
+        <v>1.760568031487</v>
       </c>
       <c r="R5">
-        <v>22.876806891785</v>
+        <v>7.042272125947999</v>
       </c>
       <c r="S5">
-        <v>0.01115555406128825</v>
+        <v>0.002409938260681149</v>
       </c>
       <c r="T5">
-        <v>0.005573563293906194</v>
+        <v>0.001165910952261079</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.4135925</v>
+        <v>0.8141179999999999</v>
       </c>
       <c r="H6">
-        <v>4.827185</v>
+        <v>1.628236</v>
       </c>
       <c r="I6">
-        <v>0.1006166576043813</v>
+        <v>0.03711595173929667</v>
       </c>
       <c r="J6">
-        <v>0.07006619804477368</v>
+        <v>0.02558673725508277</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.288577</v>
+        <v>15.97657333333333</v>
       </c>
       <c r="N6">
-        <v>9.865731</v>
+        <v>47.92972</v>
       </c>
       <c r="O6">
-        <v>0.1538713650690733</v>
+        <v>0.479693129114909</v>
       </c>
       <c r="P6">
-        <v>0.1655968959856798</v>
+        <v>0.5049634148023289</v>
       </c>
       <c r="Q6">
-        <v>7.9372847828725</v>
+        <v>13.00681592898667</v>
       </c>
       <c r="R6">
-        <v>47.623708697235</v>
+        <v>78.04089557392</v>
       </c>
       <c r="S6">
-        <v>0.01548202245427371</v>
+        <v>0.01780426702990117</v>
       </c>
       <c r="T6">
-        <v>0.01160274490973243</v>
+        <v>0.01292036621797656</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,10 +838,10 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
         <v>27</v>
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.4135925</v>
+        <v>0.8141179999999999</v>
       </c>
       <c r="H7">
-        <v>4.827185</v>
+        <v>1.628236</v>
       </c>
       <c r="I7">
-        <v>0.1006166576043813</v>
+        <v>0.03711595173929667</v>
       </c>
       <c r="J7">
-        <v>0.07006619804477368</v>
+        <v>0.02558673725508277</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.666218666666667</v>
+        <v>2.894743333333333</v>
       </c>
       <c r="N7">
-        <v>13.998656</v>
+        <v>8.684229999999999</v>
       </c>
       <c r="O7">
-        <v>0.2183307357409577</v>
+        <v>0.08691403710794816</v>
       </c>
       <c r="P7">
-        <v>0.2349682939430755</v>
+        <v>0.0914926779403015</v>
       </c>
       <c r="Q7">
-        <v>11.26235037722667</v>
+        <v>2.356662653046666</v>
       </c>
       <c r="R7">
-        <v>67.57410226336</v>
+        <v>14.13997591828</v>
       </c>
       <c r="S7">
-        <v>0.0219677088825606</v>
+        <v>0.003225897206766044</v>
       </c>
       <c r="T7">
-        <v>0.01646333501765813</v>
+        <v>0.002340999111222401</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
@@ -921,10 +921,10 @@
         <v>59.301109</v>
       </c>
       <c r="I8">
-        <v>0.8240384930780011</v>
+        <v>0.9011867647895317</v>
       </c>
       <c r="J8">
-        <v>0.8607507786564448</v>
+        <v>0.9318808175952528</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -933,28 +933,28 @@
         <v>0.5</v>
       </c>
       <c r="M8">
-        <v>2.170377</v>
+        <v>2.8377025</v>
       </c>
       <c r="N8">
-        <v>4.340754</v>
+        <v>5.675405</v>
       </c>
       <c r="O8">
-        <v>0.1015511790371703</v>
+        <v>0.08520139853031897</v>
       </c>
       <c r="P8">
-        <v>0.07285982038608428</v>
+        <v>0.05979321158534227</v>
       </c>
       <c r="Q8">
-        <v>42.901921016031</v>
+        <v>56.09296842069083</v>
       </c>
       <c r="R8">
-        <v>257.411526096186</v>
+        <v>336.5578105241449</v>
       </c>
       <c r="S8">
-        <v>0.08368208054408408</v>
+        <v>0.07678237269708171</v>
       </c>
       <c r="T8">
-        <v>0.06271414713009076</v>
+        <v>0.05572014689879469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,10 +962,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
@@ -983,10 +983,10 @@
         <v>59.301109</v>
       </c>
       <c r="I9">
-        <v>0.8240384930780011</v>
+        <v>0.9011867647895317</v>
       </c>
       <c r="J9">
-        <v>0.8607507786564448</v>
+        <v>0.9318808175952528</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>15.185923</v>
       </c>
       <c r="O9">
-        <v>0.2368480046581279</v>
+        <v>0.1519846751111432</v>
       </c>
       <c r="P9">
-        <v>0.2548966428820675</v>
+        <v>0.1599912441592654</v>
       </c>
       <c r="Q9">
         <v>100.0602305654008</v>
@@ -1013,10 +1013,10 @@
         <v>900.5420750886069</v>
       </c>
       <c r="S9">
-        <v>0.1951718728470151</v>
+        <v>0.1369665776609993</v>
       </c>
       <c r="T9">
-        <v>0.2194024838376533</v>
+        <v>0.1490927714152179</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,13 +1024,13 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
         <v>25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,10 +1045,10 @@
         <v>59.301109</v>
       </c>
       <c r="I10">
-        <v>0.8240384930780011</v>
+        <v>0.9011867647895317</v>
       </c>
       <c r="J10">
-        <v>0.8607507786564448</v>
+        <v>0.9318808175952528</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.815520666666667</v>
+        <v>4.372280666666666</v>
       </c>
       <c r="N10">
-        <v>11.446562</v>
+        <v>13.116842</v>
       </c>
       <c r="O10">
-        <v>0.1785268745202745</v>
+        <v>0.1312767732230829</v>
       </c>
       <c r="P10">
-        <v>0.1921312406457905</v>
+        <v>0.1381924477702479</v>
       </c>
       <c r="Q10">
-        <v>75.42153564858422</v>
+        <v>86.42703079753088</v>
       </c>
       <c r="R10">
-        <v>678.793820837258</v>
+        <v>777.8432771777778</v>
       </c>
       <c r="S10">
-        <v>0.1471130166536124</v>
+        <v>0.1183048905529191</v>
       </c>
       <c r="T10">
-        <v>0.1653771149900929</v>
+        <v>0.1287788912136279</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,10 +1086,10 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>22</v>
@@ -1107,10 +1107,10 @@
         <v>59.301109</v>
       </c>
       <c r="I11">
-        <v>0.8240384930780011</v>
+        <v>0.9011867647895317</v>
       </c>
       <c r="J11">
-        <v>0.8607507786564448</v>
+        <v>0.9318808175952528</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>2.3695805</v>
+        <v>2.1625465</v>
       </c>
       <c r="N11">
-        <v>4.739161</v>
+        <v>4.325093</v>
       </c>
       <c r="O11">
-        <v>0.1108718409743963</v>
+        <v>0.06492998691259792</v>
       </c>
       <c r="P11">
-        <v>0.07954710615730251</v>
+        <v>0.04556700374251401</v>
       </c>
       <c r="Q11">
-        <v>46.83958383825817</v>
+        <v>42.74713523802284</v>
       </c>
       <c r="R11">
-        <v>281.037503029549</v>
+        <v>256.482811428137</v>
       </c>
       <c r="S11">
-        <v>0.09136266476132533</v>
+        <v>0.05851404484359076</v>
       </c>
       <c r="T11">
-        <v>0.068470233564765</v>
+        <v>0.0424630167029399</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,13 +1148,13 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1169,10 +1169,10 @@
         <v>59.301109</v>
       </c>
       <c r="I12">
-        <v>0.8240384930780011</v>
+        <v>0.9011867647895317</v>
       </c>
       <c r="J12">
-        <v>0.8607507786564448</v>
+        <v>0.9318808175952528</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.288577</v>
+        <v>15.97657333333333</v>
       </c>
       <c r="N12">
-        <v>9.865731</v>
+        <v>47.92972</v>
       </c>
       <c r="O12">
-        <v>0.1538713650690733</v>
+        <v>0.479693129114909</v>
       </c>
       <c r="P12">
-        <v>0.1655968959856798</v>
+        <v>0.5049634148023289</v>
       </c>
       <c r="Q12">
-        <v>65.00542104396433</v>
+        <v>315.8095055621645</v>
       </c>
       <c r="R12">
-        <v>585.048789395679</v>
+        <v>2842.28555005948</v>
       </c>
       <c r="S12">
-        <v>0.1267959277993742</v>
+        <v>0.432293099118832</v>
       </c>
       <c r="T12">
-        <v>0.1425376571627642</v>
+        <v>0.470565719841685</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,10 +1210,10 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" t="s">
         <v>27</v>
@@ -1231,10 +1231,10 @@
         <v>59.301109</v>
       </c>
       <c r="I13">
-        <v>0.8240384930780011</v>
+        <v>0.9011867647895317</v>
       </c>
       <c r="J13">
-        <v>0.8607507786564448</v>
+        <v>0.9318808175952528</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.666218666666667</v>
+        <v>2.894743333333333</v>
       </c>
       <c r="N13">
-        <v>13.998656</v>
+        <v>8.684229999999999</v>
       </c>
       <c r="O13">
-        <v>0.2183307357409577</v>
+        <v>0.08691403710794816</v>
       </c>
       <c r="P13">
-        <v>0.2349682939430755</v>
+        <v>0.0914926779403015</v>
       </c>
       <c r="Q13">
-        <v>92.23731392327822</v>
+        <v>57.22049664567444</v>
       </c>
       <c r="R13">
-        <v>830.135825309504</v>
+        <v>514.98446981107</v>
       </c>
       <c r="S13">
-        <v>0.17991293047259</v>
+        <v>0.07832577991610912</v>
       </c>
       <c r="T13">
-        <v>0.2022491419710787</v>
+        <v>0.0852602715229873</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.655778</v>
+        <v>1.353296</v>
       </c>
       <c r="H14">
-        <v>1.311556</v>
+        <v>2.706592</v>
       </c>
       <c r="I14">
-        <v>0.02733775087985481</v>
+        <v>0.06169728347117155</v>
       </c>
       <c r="J14">
-        <v>0.01903712877024833</v>
+        <v>0.04253244514966441</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1305,28 +1305,28 @@
         <v>0.5</v>
       </c>
       <c r="M14">
-        <v>2.170377</v>
+        <v>2.8377025</v>
       </c>
       <c r="N14">
-        <v>4.340754</v>
+        <v>5.675405</v>
       </c>
       <c r="O14">
-        <v>0.1015511790371703</v>
+        <v>0.08520139853031897</v>
       </c>
       <c r="P14">
-        <v>0.07285982038608428</v>
+        <v>0.05979321158534227</v>
       </c>
       <c r="Q14">
-        <v>1.423285488306</v>
+        <v>3.84025144244</v>
       </c>
       <c r="R14">
-        <v>5.693141953224</v>
+        <v>15.36100576976</v>
       </c>
       <c r="S14">
-        <v>0.002776180834073695</v>
+        <v>0.005256694837265348</v>
       </c>
       <c r="T14">
-        <v>0.001387041782867051</v>
+        <v>0.002543151492075849</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.655778</v>
+        <v>1.353296</v>
       </c>
       <c r="H15">
-        <v>1.311556</v>
+        <v>2.706592</v>
       </c>
       <c r="I15">
-        <v>0.02733775087985481</v>
+        <v>0.06169728347117155</v>
       </c>
       <c r="J15">
-        <v>0.01903712877024833</v>
+        <v>0.04253244514966441</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>15.185923</v>
       </c>
       <c r="O15">
-        <v>0.2368480046581279</v>
+        <v>0.1519846751111432</v>
       </c>
       <c r="P15">
-        <v>0.2548966428820675</v>
+        <v>0.1599912441592654</v>
       </c>
       <c r="Q15">
-        <v>3.319531404364666</v>
+        <v>6.850349617402666</v>
       </c>
       <c r="R15">
-        <v>19.917188426188</v>
+        <v>41.102097704416</v>
       </c>
       <c r="S15">
-        <v>0.006474891747734595</v>
+        <v>0.009377041583606117</v>
       </c>
       <c r="T15">
-        <v>0.004852500213649922</v>
+        <v>0.006804818816630522</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,13 +1396,13 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.655778</v>
+        <v>1.353296</v>
       </c>
       <c r="H16">
-        <v>1.311556</v>
+        <v>2.706592</v>
       </c>
       <c r="I16">
-        <v>0.02733775087985481</v>
+        <v>0.06169728347117155</v>
       </c>
       <c r="J16">
-        <v>0.01903712877024833</v>
+        <v>0.04253244514966441</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.815520666666667</v>
+        <v>4.372280666666666</v>
       </c>
       <c r="N16">
-        <v>11.446562</v>
+        <v>13.116842</v>
       </c>
       <c r="O16">
-        <v>0.1785268745202745</v>
+        <v>0.1312767732230829</v>
       </c>
       <c r="P16">
-        <v>0.1921312406457905</v>
+        <v>0.1381924477702479</v>
       </c>
       <c r="Q16">
-        <v>2.502134511745333</v>
+        <v>5.916989937077332</v>
       </c>
       <c r="R16">
-        <v>15.012807070472</v>
+        <v>35.50193962246399</v>
       </c>
       <c r="S16">
-        <v>0.004880523220994364</v>
+        <v>0.008099420290725247</v>
       </c>
       <c r="T16">
-        <v>0.003657627168961483</v>
+        <v>0.005877662704885934</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D17" t="s">
         <v>22</v>
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.655778</v>
+        <v>1.353296</v>
       </c>
       <c r="H17">
-        <v>1.311556</v>
+        <v>2.706592</v>
       </c>
       <c r="I17">
-        <v>0.02733775087985481</v>
+        <v>0.06169728347117155</v>
       </c>
       <c r="J17">
-        <v>0.01903712877024833</v>
+        <v>0.04253244514966441</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.3695805</v>
+        <v>2.1625465</v>
       </c>
       <c r="N17">
-        <v>4.739161</v>
+        <v>4.325093</v>
       </c>
       <c r="O17">
-        <v>0.1108718409743963</v>
+        <v>0.06492998691259792</v>
       </c>
       <c r="P17">
-        <v>0.07954710615730251</v>
+        <v>0.04556700374251401</v>
       </c>
       <c r="Q17">
-        <v>1.553918761129</v>
+        <v>2.926565528264</v>
       </c>
       <c r="R17">
-        <v>6.215675044516</v>
+        <v>11.706262113056</v>
       </c>
       <c r="S17">
-        <v>0.003030986768148926</v>
+        <v>0.004006003808326013</v>
       </c>
       <c r="T17">
-        <v>0.001514348503217182</v>
+        <v>0.00193807608731303</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,13 +1520,13 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.655778</v>
+        <v>1.353296</v>
       </c>
       <c r="H18">
-        <v>1.311556</v>
+        <v>2.706592</v>
       </c>
       <c r="I18">
-        <v>0.02733775087985481</v>
+        <v>0.06169728347117155</v>
       </c>
       <c r="J18">
-        <v>0.01903712877024833</v>
+        <v>0.04253244514966441</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>3.288577</v>
+        <v>15.97657333333333</v>
       </c>
       <c r="N18">
-        <v>9.865731</v>
+        <v>47.92972</v>
       </c>
       <c r="O18">
-        <v>0.1538713650690733</v>
+        <v>0.479693129114909</v>
       </c>
       <c r="P18">
-        <v>0.1655968959856798</v>
+        <v>0.5049634148023289</v>
       </c>
       <c r="Q18">
-        <v>2.156576447906</v>
+        <v>21.62103278570667</v>
       </c>
       <c r="R18">
-        <v>12.939458687436</v>
+        <v>129.72619671424</v>
       </c>
       <c r="S18">
-        <v>0.004206497045801521</v>
+        <v>0.02959576296617583</v>
       </c>
       <c r="T18">
-        <v>0.003152489432832805</v>
+        <v>0.02147732874266729</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,10 +1582,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D19" t="s">
         <v>27</v>
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.655778</v>
+        <v>1.353296</v>
       </c>
       <c r="H19">
-        <v>1.311556</v>
+        <v>2.706592</v>
       </c>
       <c r="I19">
-        <v>0.02733775087985481</v>
+        <v>0.06169728347117155</v>
       </c>
       <c r="J19">
-        <v>0.01903712877024833</v>
+        <v>0.04253244514966441</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,400 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.666218666666667</v>
+        <v>2.894743333333333</v>
       </c>
       <c r="N19">
-        <v>13.998656</v>
+        <v>8.684229999999999</v>
       </c>
       <c r="O19">
-        <v>0.2183307357409577</v>
+        <v>0.08691403710794816</v>
       </c>
       <c r="P19">
-        <v>0.2349682939430755</v>
+        <v>0.0914926779403015</v>
       </c>
       <c r="Q19">
-        <v>3.060003544789333</v>
+        <v>3.917444574026666</v>
       </c>
       <c r="R19">
-        <v>18.360021268736</v>
+        <v>23.50466744416</v>
       </c>
       <c r="S19">
-        <v>0.005968671263101714</v>
+        <v>0.005362359985073001</v>
       </c>
       <c r="T19">
-        <v>0.004473121668719889</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" t="s">
-        <v>25</v>
-      </c>
-      <c r="D20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1.151594333333333</v>
-      </c>
-      <c r="H20">
-        <v>3.454783</v>
-      </c>
-      <c r="I20">
-        <v>0.04800709843776271</v>
-      </c>
-      <c r="J20">
-        <v>0.05014589452853316</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-      <c r="L20">
-        <v>0.5</v>
-      </c>
-      <c r="M20">
-        <v>2.170377</v>
-      </c>
-      <c r="N20">
-        <v>4.340754</v>
-      </c>
-      <c r="O20">
-        <v>0.1015511790371703</v>
-      </c>
-      <c r="P20">
-        <v>0.07285982038608428</v>
-      </c>
-      <c r="Q20">
-        <v>2.499393854397</v>
-      </c>
-      <c r="R20">
-        <v>14.996363126382</v>
-      </c>
-      <c r="S20">
-        <v>0.004875177448508297</v>
-      </c>
-      <c r="T20">
-        <v>0.003653620868448452</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.151594333333333</v>
-      </c>
-      <c r="H21">
-        <v>3.454783</v>
-      </c>
-      <c r="I21">
-        <v>0.04800709843776271</v>
-      </c>
-      <c r="J21">
-        <v>0.05014589452853316</v>
-      </c>
-      <c r="K21">
-        <v>3</v>
-      </c>
-      <c r="L21">
-        <v>1</v>
-      </c>
-      <c r="M21">
-        <v>5.061974333333333</v>
-      </c>
-      <c r="N21">
-        <v>15.185923</v>
-      </c>
-      <c r="O21">
-        <v>0.2368480046581279</v>
-      </c>
-      <c r="P21">
-        <v>0.2548966428820675</v>
-      </c>
-      <c r="Q21">
-        <v>5.829340957745444</v>
-      </c>
-      <c r="R21">
-        <v>52.464068619709</v>
-      </c>
-      <c r="S21">
-        <v>0.01137038547441043</v>
-      </c>
-      <c r="T21">
-        <v>0.01278202016964134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" t="s">
-        <v>26</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>1.151594333333333</v>
-      </c>
-      <c r="H22">
-        <v>3.454783</v>
-      </c>
-      <c r="I22">
-        <v>0.04800709843776271</v>
-      </c>
-      <c r="J22">
-        <v>0.05014589452853316</v>
-      </c>
-      <c r="K22">
-        <v>3</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-      <c r="M22">
-        <v>3.815520666666667</v>
-      </c>
-      <c r="N22">
-        <v>11.446562</v>
-      </c>
-      <c r="O22">
-        <v>0.1785268745202745</v>
-      </c>
-      <c r="P22">
-        <v>0.1921312406457905</v>
-      </c>
-      <c r="Q22">
-        <v>4.393931978449555</v>
-      </c>
-      <c r="R22">
-        <v>39.545387806046</v>
-      </c>
-      <c r="S22">
-        <v>0.008570557238880928</v>
-      </c>
-      <c r="T22">
-        <v>0.009634592929060031</v>
-      </c>
-    </row>
-    <row r="23" spans="1:20">
-      <c r="A23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" t="s">
-        <v>24</v>
-      </c>
-      <c r="C23" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23">
-        <v>3</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23">
-        <v>1.151594333333333</v>
-      </c>
-      <c r="H23">
-        <v>3.454783</v>
-      </c>
-      <c r="I23">
-        <v>0.04800709843776271</v>
-      </c>
-      <c r="J23">
-        <v>0.05014589452853316</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-      <c r="M23">
-        <v>2.3695805</v>
-      </c>
-      <c r="N23">
-        <v>4.739161</v>
-      </c>
-      <c r="O23">
-        <v>0.1108718409743963</v>
-      </c>
-      <c r="P23">
-        <v>0.07954710615730251</v>
-      </c>
-      <c r="Q23">
-        <v>2.728795476177167</v>
-      </c>
-      <c r="R23">
-        <v>16.372772857063</v>
-      </c>
-      <c r="S23">
-        <v>0.005322635383633817</v>
-      </c>
-      <c r="T23">
-        <v>0.003988960795414122</v>
-      </c>
-    </row>
-    <row r="24" spans="1:20">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24">
-        <v>3</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24">
-        <v>1.151594333333333</v>
-      </c>
-      <c r="H24">
-        <v>3.454783</v>
-      </c>
-      <c r="I24">
-        <v>0.04800709843776271</v>
-      </c>
-      <c r="J24">
-        <v>0.05014589452853316</v>
-      </c>
-      <c r="K24">
-        <v>3</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-      <c r="M24">
-        <v>3.288577</v>
-      </c>
-      <c r="N24">
-        <v>9.865731</v>
-      </c>
-      <c r="O24">
-        <v>0.1538713650690733</v>
-      </c>
-      <c r="P24">
-        <v>0.1655968959856798</v>
-      </c>
-      <c r="Q24">
-        <v>3.787106637930334</v>
-      </c>
-      <c r="R24">
-        <v>34.083959741373</v>
-      </c>
-      <c r="S24">
-        <v>0.007386917769623926</v>
-      </c>
-      <c r="T24">
-        <v>0.008304004480350376</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20">
-      <c r="A25" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25">
-        <v>3</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.151594333333333</v>
-      </c>
-      <c r="H25">
-        <v>3.454783</v>
-      </c>
-      <c r="I25">
-        <v>0.04800709843776271</v>
-      </c>
-      <c r="J25">
-        <v>0.05014589452853316</v>
-      </c>
-      <c r="K25">
-        <v>3</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>4.666218666666667</v>
-      </c>
-      <c r="N25">
-        <v>13.998656</v>
-      </c>
-      <c r="O25">
-        <v>0.2183307357409577</v>
-      </c>
-      <c r="P25">
-        <v>0.2349682939430755</v>
-      </c>
-      <c r="Q25">
-        <v>5.373590974627556</v>
-      </c>
-      <c r="R25">
-        <v>48.362318771648</v>
-      </c>
-      <c r="S25">
-        <v>0.01048142512270531</v>
-      </c>
-      <c r="T25">
-        <v>0.01178269528561884</v>
+        <v>0.003891407306091785</v>
       </c>
     </row>
   </sheetData>
